--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\MuscleMuseum\.config\becExpConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WOODHOUSE\Documents\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B378B8B-C2B9-47A2-87CD-AD04CFA47CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A8A25-251F-4313-924A-80D4F1DBC8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,23 +247,32 @@
   </si>
   <si>
     <t>CiceroLogTime</t>
+  </si>
+  <si>
+    <t>ODTHoldTime</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>ODThold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -571,20 +580,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="4" width="12.265625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -592,7 +601,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -600,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -608,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -616,12 +625,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -629,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -637,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -645,7 +654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -653,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -661,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -669,7 +678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -677,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -685,7 +694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -693,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -701,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -709,7 +718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -717,7 +726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -725,7 +734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -733,12 +742,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -746,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -754,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -762,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -770,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -778,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -786,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -794,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -802,12 +811,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -815,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -823,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -831,127 +840,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WOODHOUSE\Documents\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A8A25-251F-4313-924A-80D4F1DBC8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF433CE-31CE-40A9-ABA2-B1D8D0678026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,23 +256,26 @@
   </si>
   <si>
     <t>ODThold</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -582,18 +585,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="4" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -601,7 +604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -617,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -625,12 +628,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -638,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -646,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -654,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -662,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -670,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -678,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -686,7 +689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -694,7 +697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -702,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -710,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -718,7 +721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -726,7 +729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -734,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -742,12 +745,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -755,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -763,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -771,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -779,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -787,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -795,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -803,7 +806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -811,12 +814,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -824,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -832,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -840,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -848,7 +851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -856,7 +859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -864,12 +867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -877,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -885,12 +888,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -898,7 +901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -906,7 +909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -914,7 +917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -922,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -930,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -938,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -946,7 +949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -954,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -962,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -970,14 +973,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF433CE-31CE-40A9-ABA2-B1D8D0678026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>ms</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -297,12 +303,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,20 +591,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="4" width="12.265625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="true"/>
+    <col min="2" max="2" width="20.125" customWidth="true"/>
+    <col min="3" max="4" width="12.265625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -604,7 +612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -620,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -628,12 +636,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -641,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -649,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -657,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -665,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -673,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -681,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -689,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -697,7 +705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -705,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -713,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -721,7 +729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -729,7 +737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -737,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -745,12 +753,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -758,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -766,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -774,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -782,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -790,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -798,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -806,7 +814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -814,12 +822,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -827,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -835,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -843,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -851,7 +859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -859,7 +867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -867,12 +875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -880,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -888,12 +896,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -901,7 +909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -909,7 +917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -917,7 +925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -925,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -933,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -941,7 +949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -949,7 +957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -957,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -965,7 +973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -973,17 +981,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\MuscleMuseum\.config\becExpConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF433CE-31CE-40A9-ABA2-B1D8D0678026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B615B-9629-47D0-8CFD-47654E72E05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,23 +265,29 @@
   </si>
   <si>
     <t>ms</t>
+  </si>
+  <si>
+    <t>xvlattice</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,20 +597,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="true"/>
-    <col min="2" max="2" width="20.125" customWidth="true"/>
-    <col min="3" max="4" width="12.265625" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="true"/>
+    <col min="2" max="2" width="21.5703125" customWidth="true"/>
+    <col min="3" max="4" width="12.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -612,7 +618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -628,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -636,12 +642,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -649,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -657,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -665,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -673,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -681,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -689,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -697,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -705,7 +711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -713,7 +719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -721,7 +727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -729,7 +735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -737,7 +743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -745,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -753,12 +759,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -766,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -774,7 +780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -782,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.4">
+    <row r="24">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -790,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.4">
+    <row r="25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -798,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.4">
+    <row r="26">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -806,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.4">
+    <row r="27">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -814,7 +820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.4">
+    <row r="28">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -822,12 +828,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.4">
+    <row r="29">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.4">
+    <row r="30">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -835,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.4">
+    <row r="31">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -843,7 +849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.4">
+    <row r="32">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -851,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.4">
+    <row r="33">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -859,7 +865,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.4">
+    <row r="34">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -867,7 +873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.4">
+    <row r="35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -875,12 +881,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.4">
+    <row r="36">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.4">
+    <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -888,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.4">
+    <row r="38">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -896,12 +902,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.4">
+    <row r="39">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.4">
+    <row r="40">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -909,7 +915,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.4">
+    <row r="41">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -917,7 +923,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.4">
+    <row r="42">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -925,7 +931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.4">
+    <row r="43">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -933,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.4">
+    <row r="44">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -941,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.4">
+    <row r="45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -949,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.4">
+    <row r="46">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -957,7 +963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.4">
+    <row r="47">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -965,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.4">
+    <row r="48">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -973,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.4">
+    <row r="49">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -981,12 +987,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" x14ac:dyDescent="0.4">
+    <row r="50">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" x14ac:dyDescent="0.4">
+    <row r="51">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -995,11 +1001,19 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>xvlattice</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>ZS_NI</t>
   </si>
   <si>
     <t>V</t>
@@ -597,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B53" sqref="A53:B53"/>
@@ -1016,6 +1022,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>ZS_NI</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>xvramptime</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>xvPiPulse</t>
   </si>
   <si>
     <t>V</t>
@@ -603,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B53" sqref="A53:B53"/>
@@ -1030,6 +1042,22 @@
         <v>65</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>xvPiPulse</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>plugvva</t>
   </si>
   <si>
     <t>V</t>
@@ -615,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B53" sqref="A53:B53"/>
@@ -1058,6 +1064,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B615B-9629-47D0-8CFD-47654E72E05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91C978-6BA2-413E-ADD0-7962D5383DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>multiplier</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -333,14 +336,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,20 +622,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="A53:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="true"/>
-    <col min="2" max="2" width="21.5703125" customWidth="true"/>
-    <col min="3" max="4" width="12.28515625" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -642,7 +643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -650,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -658,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -666,12 +667,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -679,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -687,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -695,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -703,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -711,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -719,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -727,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -735,7 +736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -743,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -751,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -759,7 +760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -767,7 +768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -775,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -783,12 +784,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -796,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -804,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -812,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -820,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -828,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -836,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -844,7 +845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -852,12 +853,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -865,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -873,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -881,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -889,7 +890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -897,7 +898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -905,12 +906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -918,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -926,12 +927,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -939,7 +940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -947,7 +948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -955,7 +956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -963,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -971,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -979,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -987,7 +988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -995,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1011,12 +1012,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1032,44 +1033,49 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91C978-6BA2-413E-ADD0-7962D5383DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9BF97D-E7F7-48C5-AC8B-58670656A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>multiplier</t>
+  </si>
+  <si>
+    <t>MuHold</t>
   </si>
 </sst>
 </file>
@@ -622,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1078,6 +1081,14 @@
         <v>72</v>
       </c>
     </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9BF97D-E7F7-48C5-AC8B-58670656A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>MuHold</t>
+  </si>
+  <si>
+    <t>NIRampTime</t>
+  </si>
+  <si>
+    <t>ms</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -339,12 +345,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,20 +633,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="true"/>
+    <col min="2" max="2" width="21.5703125" customWidth="true"/>
+    <col min="3" max="4" width="12.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -646,7 +654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -654,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -662,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -670,12 +678,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -683,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -691,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -699,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -707,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -715,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -723,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -731,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -739,7 +747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -747,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -755,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -763,7 +771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -771,7 +779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -779,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -787,12 +795,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -800,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -808,7 +816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -816,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -824,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -832,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -840,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -848,7 +856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -856,12 +864,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -869,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -877,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -885,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -893,7 +901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -901,7 +909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -909,12 +917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -922,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -930,12 +938,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -943,7 +951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -951,7 +959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -959,7 +967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -967,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -975,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -983,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -991,7 +999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -999,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1015,12 +1023,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1036,7 +1044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1044,7 +1052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -1076,17 +1084,25 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58">
       <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59">
       <c r="A59" t="s">
         <v>73</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9BF97D-E7F7-48C5-AC8B-58670656A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FF693-C8B3-487D-A223-7D3236583C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -337,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -345,14 +345,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,18 +633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="true"/>
-    <col min="2" max="2" width="21.5703125" customWidth="true"/>
-    <col min="3" max="4" width="12.28515625" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -654,7 +652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -670,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -678,12 +676,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -691,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -699,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -707,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -715,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -723,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -731,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -739,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -747,7 +745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -755,7 +753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -763,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -771,7 +769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -779,7 +777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -787,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -795,12 +793,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -808,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -816,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -824,7 +822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -832,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -840,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -848,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -856,7 +854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -864,12 +862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -877,7 +875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -885,7 +883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -893,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -901,7 +899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -909,7 +907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -917,12 +915,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -930,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -938,12 +936,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -951,7 +949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -959,7 +957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -967,7 +965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -975,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -983,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -991,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -999,7 +997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1015,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1023,12 +1021,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1036,7 +1034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -1060,7 +1058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -1084,12 +1082,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -1097,11 +1095,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>75</v>
       </c>
     </row>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>ms</t>
+  </si>
+  <si>
+    <t>partialevaptime</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
@@ -1105,6 +1111,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2466B4-CC0D-4894-8BFE-B79F3A2C0667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1410" windowWidth="25695" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1410" windowWidth="25695" windowHeight="14190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>curveField</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -343,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -351,12 +357,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,20 +645,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="true"/>
+    <col min="2" max="2" width="21.5703125" customWidth="true"/>
+    <col min="3" max="4" width="12.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -658,7 +666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -674,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -682,12 +690,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -695,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -703,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -711,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -719,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -727,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -735,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -743,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -751,7 +759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -759,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -767,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -775,7 +783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -783,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -791,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -799,12 +807,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -812,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -820,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -828,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -836,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -844,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -852,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -860,7 +868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -868,12 +876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -881,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -889,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -897,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -905,7 +913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -913,7 +921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -921,12 +929,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -934,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -942,12 +950,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -955,7 +963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -963,7 +971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -971,7 +979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -979,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -987,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1027,12 +1035,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1056,7 +1064,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1072,7 +1080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -1088,12 +1096,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58">
       <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -1109,12 +1117,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61">
       <c r="A61" t="s">
         <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>curveField</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>hw_xvlattice</t>
   </si>
   <si>
     <t>V</t>
@@ -645,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
@@ -1133,6 +1139,14 @@
         <v>79</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,24 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>hw_XvLattice</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>hw_PdModDepth</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>hw_PdModPhase</t>
+  </si>
+  <si>
+    <t>Rad</t>
   </si>
 </sst>
 </file>
@@ -651,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
@@ -1147,6 +1165,30 @@
         <v>81</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>Rad</t>
+  </si>
+  <si>
+    <t>PTENMOTV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>MTramptime</t>
+  </si>
+  <si>
+    <t>ms</t>
   </si>
 </sst>
 </file>
@@ -669,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
@@ -1189,6 +1201,22 @@
         <v>87</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2466B4-CC0D-4894-8BFE-B79F3A2C0667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47A4E3-E749-4A49-86D0-1229834CEEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1410" windowWidth="25695" windowHeight="14190"/>
+    <workbookView xWindow="2730" yWindow="1410" windowWidth="25695" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>ms</t>
+  </si>
+  <si>
+    <t>tdksnapon</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>MTsnapon</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -385,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -393,14 +405,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,20 +691,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="true"/>
-    <col min="2" max="2" width="21.5703125" customWidth="true"/>
-    <col min="3" max="4" width="12.28515625" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -702,7 +712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -718,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -726,12 +736,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -739,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -747,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -755,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -763,7 +773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -771,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -779,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -787,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -795,7 +805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -803,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -811,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -819,7 +829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -827,7 +837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -835,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -843,12 +853,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -856,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -864,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -872,7 +882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -880,7 +890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -888,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -896,7 +906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -904,7 +914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -912,12 +922,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -925,7 +935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -933,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -941,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -949,7 +959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -957,7 +967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -965,12 +975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -978,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -986,12 +996,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1007,7 +1017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1039,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1071,12 +1081,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1092,7 +1102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -1132,12 +1142,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -1145,7 +1155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -1161,60 +1171,76 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47A4E3-E749-4A49-86D0-1229834CEEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3545FAA8-5AAF-4EDA-AC24-E0DED40FF414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="1410" windowWidth="25695" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SXFtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,6 +363,15 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>RFVVA</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>SXFTime</t>
   </si>
 </sst>
 </file>
@@ -691,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,10 +711,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -733,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -802,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -826,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -834,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -953,18 +958,18 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
         <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -993,7 +998,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1003,31 +1008,31 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -1035,7 +1040,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -1043,7 +1048,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1051,15 +1056,15 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -1067,7 +1072,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1075,7 +1080,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1083,164 +1088,172 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
         <v>60</v>
-      </c>
-      <c r="B52" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
         <v>62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
         <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
         <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
         <v>68</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
         <v>70</v>
-      </c>
-      <c r="B57" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
         <v>74</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
         <v>76</v>
-      </c>
-      <c r="B61" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
         <v>78</v>
-      </c>
-      <c r="B62" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
         <v>80</v>
-      </c>
-      <c r="B63" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
         <v>82</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
         <v>84</v>
-      </c>
-      <c r="B65" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
         <v>86</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
         <v>88</v>
-      </c>
-      <c r="B67" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
         <v>90</v>
-      </c>
-      <c r="B68" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
         <v>92</v>
-      </c>
-      <c r="B69" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
         <v>94</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>95</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3545FAA8-5AAF-4EDA-AC24-E0DED40FF414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF7828A-9621-43AD-8466-D44B53D516B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1410" windowWidth="25695" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25695" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>SXFTime</t>
+  </si>
+  <si>
+    <t>LatticeScope_CH1_Mean</t>
   </si>
 </sst>
 </file>
@@ -696,15 +699,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="4" width="12.28515625" customWidth="1"/>
   </cols>
@@ -1256,6 +1259,14 @@
         <v>96</v>
       </c>
     </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF7828A-9621-43AD-8466-D44B53D516B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC08CE37-538B-44F2-AC05-5E7743B707FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="25695" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25635" yWindow="810" windowWidth="25695" windowHeight="14190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,48 @@
   </si>
   <si>
     <t>LatticeScope_CH1_Mean</t>
+  </si>
+  <si>
+    <t>dummy3</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>rampspeed</t>
+  </si>
+  <si>
+    <t>ms/V</t>
+  </si>
+  <si>
+    <t>sxfendpoint</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>sxfstartpoint</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>hw_RfKnife</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>hw_SXEndPoint</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>hw_SXStartPoint</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -405,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -413,12 +455,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,20 +743,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="true" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="true"/>
+    <col min="2" max="2" width="21.5703125" customWidth="true"/>
+    <col min="3" max="4" width="12.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -720,7 +764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -728,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -736,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -744,12 +788,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -757,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -765,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -773,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -781,7 +825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -789,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -797,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -805,7 +849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -813,7 +857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -821,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -829,7 +873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -837,7 +881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -845,7 +889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -853,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -861,12 +905,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -874,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -882,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -890,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -898,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -906,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -914,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -922,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -930,12 +974,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -943,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -951,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -959,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -967,7 +1011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -975,7 +1019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -983,12 +1027,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -996,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1004,20 +1048,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40">
       <c r="A40" t="s">
         <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1025,7 +1069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1033,7 +1077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1041,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1049,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1057,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1065,7 +1109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1073,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1089,12 +1133,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1102,7 +1146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1110,7 +1154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -1118,7 +1162,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -1126,7 +1170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1134,7 +1178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -1142,7 +1186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -1150,12 +1194,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58">
       <c r="A58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -1163,7 +1207,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -1171,7 +1215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -1179,7 +1223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -1187,7 +1231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -1195,7 +1239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -1203,7 +1247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -1211,7 +1255,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -1219,7 +1263,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -1227,7 +1271,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -1235,7 +1279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -1243,7 +1287,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -1251,7 +1295,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -1259,12 +1303,68 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72">
       <c r="A72" t="s">
         <v>98</v>
       </c>
       <c r="B72" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC08CE37-538B-44F2-AC05-5E7743B707FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A8B451-AA35-4580-A6B7-E6BB2E848554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25635" yWindow="810" windowWidth="25695" windowHeight="14190"/>
+    <workbookView xWindow="-26970" yWindow="705" windowWidth="25695" windowHeight="14190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +414,42 @@
   </si>
   <si>
     <t>hw_SXStartPoint</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>NIhold</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>HfHoldTime</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>hw_SdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>hw_SdRabiDepth</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>hw_XvNi</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>ZS_HF</t>
   </si>
   <si>
     <t>V</t>
@@ -743,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="true" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,59 +1348,107 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="A73" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="A74" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="A75" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="A76" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="A77" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="A78" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="A79" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/parameterUnit.csv.xlsx
+++ b/.config/becExpConfig/parameterUnit.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
   <si>
     <t>cMOT_tot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>vertfieldgrad</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>LatticeScope_Ch3_Mean</t>
   </si>
 </sst>
 </file>
@@ -779,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
@@ -1451,6 +1460,20 @@
         <v>124</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="0"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
